--- a/ThesisTables.xlsx
+++ b/ThesisTables.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rostyslavliapkin/Desktop/ThedyxEngine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B3ED60-DFA8-964E-991B-A2DB12ED6B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12C1AE2-50B5-104E-ABBB-EB3AD811F5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{89A7890A-7341-9647-ADE8-D493D9DD052F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" activeTab="1" xr2:uid="{89A7890A-7341-9647-ADE8-D493D9DD052F}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmarking MultiCore" sheetId="1" r:id="rId1"/>
+    <sheet name="Real kettle vs Program" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Benchmarking MultiCore'!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Benchmarking MultiCore'!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Benchmarking MultiCore'!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Benchmarking MultiCore'!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Real kettle vs Program'!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Real kettle vs Program'!$C$2:$C$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Real kettle vs Program'!$E$2:$E$14</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Real kettle vs Program'!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Real kettle vs Program'!$C$2:$C$14</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Real kettle vs Program'!$E$2:$E$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>TimeSteps in one minute, scene 400 objects 10*10, max zoom, without rendering, only engine</t>
   </si>
@@ -61,12 +64,27 @@
   <si>
     <t>100 objects</t>
   </si>
+  <si>
+    <t>Time Real Kettle</t>
+  </si>
+  <si>
+    <t>Temperature °C</t>
+  </si>
+  <si>
+    <t>Seconds, Real</t>
+  </si>
+  <si>
+    <t>Time Simulated Kettle</t>
+  </si>
+  <si>
+    <t>Seconds, simulation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +96,26 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,11 +138,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,7 +915,683 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Real kettle vs Simulated Kettle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Real Kettle</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Real kettle vs Program'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Real kettle vs Program'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D09-7A4B-97D5-689B85826329}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Simulated kettle</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Real kettle vs Program'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Real kettle vs Program'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D09-7A4B-97D5-689B85826329}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="529990800"/>
+        <c:axId val="1607337663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="529990800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Temperature °C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1607337663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1607337663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Time,s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529990800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1429,6 +2147,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1450,6 +2684,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1EE4D6-DB07-371A-31E8-115164677361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1489807</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>683846</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136769</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B183E630-E464-9D5F-0F9B-A24F75357427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB32DE9-C195-2E40-B2BA-287442BDFEE8}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -1991,4 +3266,271 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3C9E9A-AC64-6C49-8FDA-9F399F518027}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.5694444444444443E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>77</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.791666666666667E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>97</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>117</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>134</v>
+      </c>
+      <c r="D9" s="5">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="C10" s="3">
+        <v>152</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="E10" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="C11" s="3">
+        <v>170</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="E11" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>80</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C12" s="3">
+        <v>190</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="E12" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>85</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.14444444444444443</v>
+      </c>
+      <c r="C13" s="3">
+        <v>208</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.17083333333333334</v>
+      </c>
+      <c r="E13" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>90</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="C14" s="3">
+        <v>229</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="E14" s="3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>